--- a/Microsoft_Patch_Tuesday_Jul-2025.xlsx
+++ b/Microsoft_Patch_Tuesday_Jul-2025.xlsx
@@ -444,7 +444,7 @@
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>Publicly Disclosed</t>
+          <t>Public PoC</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
@@ -4715,16 +4715,16 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>CVE-2025-49733</t>
+          <t>CVE-2025-47999</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Win32k Elevation of Privilege Vulnerability</t>
+          <t>Windows Hyper-V Denial of Service Vulnerability</t>
         </is>
       </c>
       <c r="C123" t="n">
-        <v>7.8</v>
+        <v>6.8</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -4738,7 +4738,7 @@
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>Windows 10 Version 1809 for 32-bit Systems, Windows 10 Version 1809 for x64-based Systems, Windows 10 Version 21H2 for 32-bit Systems, Windows 10 Version 21H2 for ARM64-based Systems, Windows 10 Version 21H2 for x64-based Systems, Windows 10 Version 22H2 for 32-bit Systems, Windows 10 Version 22H2 for ARM64-based Systems, Windows 10 Version 22H2 for x64-based Systems, Windows 11 Version 22H2 for ARM64-based Systems, Windows 11 Version 22H2 for x64-based Systems, Windows 11 Version 23H2 for ARM64-based Systems, Windows 11 Version 23H2 for x64-based Systems, Windows 11 Version 24H2 for ARM64-based Systems, Windows 11 Version 24H2 for x64-based Systems, Windows Server 2019, Windows Server 2019 (Server Core installation), Windows Server 2022, Windows Server 2022 (Server Core installation), Windows Server 2022, 23H2 Edition (Server Core installation), Windows Server 2025, Windows Server 2025 (Server Core installation)</t>
+          <t>Windows 10 Version 1607 for x64-based Systems, Windows 10 Version 1809 for x64-based Systems, Windows 10 Version 21H2 for x64-based Systems, Windows 10 Version 22H2 for x64-based Systems, Windows 11 Version 22H2 for ARM64-based Systems, Windows 11 Version 22H2 for x64-based Systems, Windows 11 Version 23H2 for ARM64-based Systems, Windows 11 Version 23H2 for x64-based Systems, Windows 11 Version 24H2 for ARM64-based Systems, Windows 11 Version 24H2 for x64-based Systems, Windows Server 2016, Windows Server 2016 (Server Core installation), Windows Server 2019, Windows Server 2019 (Server Core installation), Windows Server 2022, Windows Server 2022 (Server Core installation), Windows Server 2022, 23H2 Edition (Server Core installation), Windows Server 2025, Windows Server 2025 (Server Core installation)</t>
         </is>
       </c>
       <c r="G123" s="1" t="inlineStr">
@@ -4750,16 +4750,16 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>CVE-2025-47999</t>
+          <t>CVE-2025-49737</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Windows Hyper-V Denial of Service Vulnerability</t>
+          <t>Microsoft Teams Elevation of Privilege Vulnerability</t>
         </is>
       </c>
       <c r="C124" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -4773,7 +4773,7 @@
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>Windows 10 Version 1607 for x64-based Systems, Windows 10 Version 1809 for x64-based Systems, Windows 10 Version 21H2 for x64-based Systems, Windows 10 Version 22H2 for x64-based Systems, Windows 11 Version 22H2 for ARM64-based Systems, Windows 11 Version 22H2 for x64-based Systems, Windows 11 Version 23H2 for ARM64-based Systems, Windows 11 Version 23H2 for x64-based Systems, Windows 11 Version 24H2 for ARM64-based Systems, Windows 11 Version 24H2 for x64-based Systems, Windows Server 2016, Windows Server 2016 (Server Core installation), Windows Server 2019, Windows Server 2019 (Server Core installation), Windows Server 2022, Windows Server 2022 (Server Core installation), Windows Server 2022, 23H2 Edition (Server Core installation), Windows Server 2025, Windows Server 2025 (Server Core installation)</t>
+          <t>Microsoft Teams for Mac</t>
         </is>
       </c>
       <c r="G124" s="1" t="inlineStr">
@@ -4785,16 +4785,16 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>CVE-2025-49737</t>
+          <t>CVE-2025-49738</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Microsoft Teams Elevation of Privilege Vulnerability</t>
+          <t>Microsoft PC Manager Elevation of Privilege Vulnerability</t>
         </is>
       </c>
       <c r="C125" t="n">
-        <v>7</v>
+        <v>7.8</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -4808,7 +4808,7 @@
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>Microsoft Teams for Mac</t>
+          <t>Microsoft PC Manager</t>
         </is>
       </c>
       <c r="G125" s="1" t="inlineStr">
@@ -4820,16 +4820,16 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>CVE-2025-49738</t>
+          <t>CVE-2025-49739</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Microsoft PC Manager Elevation of Privilege Vulnerability</t>
+          <t>Visual Studio Elevation of Privilege Vulnerability</t>
         </is>
       </c>
       <c r="C126" t="n">
-        <v>7.8</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -4843,7 +4843,7 @@
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>Microsoft PC Manager</t>
+          <t>Microsoft Visual Studio 2015 Update 3, Microsoft Visual Studio 2017 version 15.9 (includes 15.0 - 15.8), Microsoft Visual Studio 2019 version 16.11 (includes 16.0 - 16.10), Microsoft Visual Studio 2022 version 17.10, Microsoft Visual Studio 2022 version 17.12, Microsoft Visual Studio 2022 version 17.14, Microsoft Visual Studio 2022 version 17.8</t>
         </is>
       </c>
       <c r="G126" s="1" t="inlineStr">
@@ -4855,12 +4855,12 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>CVE-2025-49739</t>
+          <t>CVE-2025-49740</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Visual Studio Elevation of Privilege Vulnerability</t>
+          <t>Windows SmartScreen Security Feature Bypass Vulnerability</t>
         </is>
       </c>
       <c r="C127" t="n">
@@ -4878,7 +4878,7 @@
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>Microsoft Visual Studio 2015 Update 3, Microsoft Visual Studio 2017 version 15.9 (includes 15.0 - 15.8), Microsoft Visual Studio 2019 version 16.11 (includes 16.0 - 16.10), Microsoft Visual Studio 2022 version 17.10, Microsoft Visual Studio 2022 version 17.12, Microsoft Visual Studio 2022 version 17.14, Microsoft Visual Studio 2022 version 17.8</t>
+          <t>Windows 10 Version 1607 for 32-bit Systems, Windows 10 Version 1607 for x64-based Systems, Windows 10 Version 1809 for 32-bit Systems, Windows 10 Version 1809 for x64-based Systems, Windows 10 Version 21H2 for 32-bit Systems, Windows 10 Version 21H2 for ARM64-based Systems, Windows 10 Version 21H2 for x64-based Systems, Windows 10 Version 22H2 for 32-bit Systems, Windows 10 Version 22H2 for ARM64-based Systems, Windows 10 Version 22H2 for x64-based Systems, Windows 10 for 32-bit Systems, Windows 10 for x64-based Systems, Windows 11 Version 22H2 for ARM64-based Systems, Windows 11 Version 22H2 for x64-based Systems, Windows 11 Version 23H2 for ARM64-based Systems, Windows 11 Version 23H2 for x64-based Systems, Windows 11 Version 24H2 for ARM64-based Systems, Windows 11 Version 24H2 for x64-based Systems, Windows Server 2016, Windows Server 2016 (Server Core installation), Windows Server 2019, Windows Server 2019 (Server Core installation), Windows Server 2022, Windows Server 2022 (Server Core installation), Windows Server 2022, 23H2 Edition (Server Core installation), Windows Server 2025, Windows Server 2025 (Server Core installation)</t>
         </is>
       </c>
       <c r="G127" s="1" t="inlineStr">
@@ -4890,16 +4890,16 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>CVE-2025-49740</t>
+          <t>CVE-2025-49741</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Windows SmartScreen Security Feature Bypass Vulnerability</t>
+          <t>Microsoft Edge (Chromium-based) Information Disclosure Vulnerability</t>
         </is>
       </c>
       <c r="C128" t="n">
-        <v>8.800000000000001</v>
+        <v>7.4</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -4913,7 +4913,7 @@
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>Windows 10 Version 1607 for 32-bit Systems, Windows 10 Version 1607 for x64-based Systems, Windows 10 Version 1809 for 32-bit Systems, Windows 10 Version 1809 for x64-based Systems, Windows 10 Version 21H2 for 32-bit Systems, Windows 10 Version 21H2 for ARM64-based Systems, Windows 10 Version 21H2 for x64-based Systems, Windows 10 Version 22H2 for 32-bit Systems, Windows 10 Version 22H2 for ARM64-based Systems, Windows 10 Version 22H2 for x64-based Systems, Windows 10 for 32-bit Systems, Windows 10 for x64-based Systems, Windows 11 Version 22H2 for ARM64-based Systems, Windows 11 Version 22H2 for x64-based Systems, Windows 11 Version 23H2 for ARM64-based Systems, Windows 11 Version 23H2 for x64-based Systems, Windows 11 Version 24H2 for ARM64-based Systems, Windows 11 Version 24H2 for x64-based Systems, Windows Server 2016, Windows Server 2016 (Server Core installation), Windows Server 2019, Windows Server 2019 (Server Core installation), Windows Server 2022, Windows Server 2022 (Server Core installation), Windows Server 2022, 23H2 Edition (Server Core installation), Windows Server 2025, Windows Server 2025 (Server Core installation)</t>
+          <t>Microsoft Edge (Chromium-based)</t>
         </is>
       </c>
       <c r="G128" s="1" t="inlineStr">
@@ -4925,16 +4925,16 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>CVE-2025-49741</t>
+          <t>CVE-2025-49742</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Microsoft Edge (Chromium-based) Information Disclosure Vulnerability</t>
+          <t>Windows Graphics Component Remote Code Execution Vulnerability</t>
         </is>
       </c>
       <c r="C129" t="n">
-        <v>7.4</v>
+        <v>7.8</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -4948,7 +4948,7 @@
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>Microsoft Edge (Chromium-based)</t>
+          <t>Windows 10 Version 1607 for 32-bit Systems, Windows 10 Version 1607 for x64-based Systems, Windows 10 Version 1809 for 32-bit Systems, Windows 10 Version 1809 for x64-based Systems, Windows 10 Version 21H2 for 32-bit Systems, Windows 10 Version 21H2 for ARM64-based Systems, Windows 10 Version 21H2 for x64-based Systems, Windows 10 Version 22H2 for 32-bit Systems, Windows 10 Version 22H2 for ARM64-based Systems, Windows 10 Version 22H2 for x64-based Systems, Windows 10 for 32-bit Systems, Windows 10 for x64-based Systems, Windows 11 Version 22H2 for ARM64-based Systems, Windows 11 Version 22H2 for x64-based Systems, Windows 11 Version 23H2 for ARM64-based Systems, Windows 11 Version 23H2 for x64-based Systems, Windows 11 Version 24H2 for ARM64-based Systems, Windows 11 Version 24H2 for x64-based Systems, Windows Server 2008 R2 for x64-based Systems Service Pack 1, Windows Server 2008 R2 for x64-based Systems Service Pack 1 (Server Core installation), Windows Server 2008 for 32-bit Systems Service Pack 2, Windows Server 2008 for 32-bit Systems Service Pack 2 (Server Core installation), Windows Server 2008 for x64-based Systems Service Pack 2, Windows Server 2008 for x64-based Systems Service Pack 2 (Server Core installation), Windows Server 2012, Windows Server 2012 (Server Core installation), Windows Server 2012 R2, Windows Server 2012 R2 (Server Core installation), Windows Server 2016, Windows Server 2016 (Server Core installation), Windows Server 2019, Windows Server 2019 (Server Core installation), Windows Server 2022, Windows Server 2022 (Server Core installation), Windows Server 2022, 23H2 Edition (Server Core installation), Windows Server 2025, Windows Server 2025 (Server Core installation)</t>
         </is>
       </c>
       <c r="G129" s="1" t="inlineStr">
@@ -4960,16 +4960,16 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>CVE-2025-49742</t>
+          <t>CVE-2025-49744</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Windows Graphics Component Remote Code Execution Vulnerability</t>
+          <t>Windows Graphics Component Elevation of Privilege Vulnerability</t>
         </is>
       </c>
       <c r="C130" t="n">
-        <v>7.8</v>
+        <v>7</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -4983,7 +4983,7 @@
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>Windows 10 Version 1607 for 32-bit Systems, Windows 10 Version 1607 for x64-based Systems, Windows 10 Version 1809 for 32-bit Systems, Windows 10 Version 1809 for x64-based Systems, Windows 10 Version 21H2 for 32-bit Systems, Windows 10 Version 21H2 for ARM64-based Systems, Windows 10 Version 21H2 for x64-based Systems, Windows 10 Version 22H2 for 32-bit Systems, Windows 10 Version 22H2 for ARM64-based Systems, Windows 10 Version 22H2 for x64-based Systems, Windows 10 for 32-bit Systems, Windows 10 for x64-based Systems, Windows 11 Version 22H2 for ARM64-based Systems, Windows 11 Version 22H2 for x64-based Systems, Windows 11 Version 23H2 for ARM64-based Systems, Windows 11 Version 23H2 for x64-based Systems, Windows 11 Version 24H2 for ARM64-based Systems, Windows 11 Version 24H2 for x64-based Systems, Windows Server 2008 R2 for x64-based Systems Service Pack 1, Windows Server 2008 R2 for x64-based Systems Service Pack 1 (Server Core installation), Windows Server 2008 for 32-bit Systems Service Pack 2, Windows Server 2008 for 32-bit Systems Service Pack 2 (Server Core installation), Windows Server 2008 for x64-based Systems Service Pack 2, Windows Server 2008 for x64-based Systems Service Pack 2 (Server Core installation), Windows Server 2012, Windows Server 2012 (Server Core installation), Windows Server 2012 R2, Windows Server 2012 R2 (Server Core installation), Windows Server 2016, Windows Server 2016 (Server Core installation), Windows Server 2019, Windows Server 2019 (Server Core installation), Windows Server 2022, Windows Server 2022 (Server Core installation), Windows Server 2022, 23H2 Edition (Server Core installation), Windows Server 2025, Windows Server 2025 (Server Core installation)</t>
+          <t>Windows 10 Version 1607 for 32-bit Systems, Windows 10 Version 1607 for x64-based Systems, Windows 10 Version 1809 for 32-bit Systems, Windows 10 Version 1809 for x64-based Systems, Windows 10 Version 21H2 for 32-bit Systems, Windows 10 Version 21H2 for ARM64-based Systems, Windows 10 Version 21H2 for x64-based Systems, Windows 10 Version 22H2 for 32-bit Systems, Windows 10 Version 22H2 for ARM64-based Systems, Windows 10 Version 22H2 for x64-based Systems, Windows 10 for 32-bit Systems, Windows 10 for x64-based Systems, Windows 11 Version 22H2 for ARM64-based Systems, Windows 11 Version 22H2 for x64-based Systems, Windows 11 Version 23H2 for ARM64-based Systems, Windows 11 Version 23H2 for x64-based Systems, Windows 11 Version 24H2 for ARM64-based Systems, Windows 11 Version 24H2 for x64-based Systems, Windows Server 2016, Windows Server 2016 (Server Core installation), Windows Server 2019, Windows Server 2019 (Server Core installation), Windows Server 2022, Windows Server 2022 (Server Core installation), Windows Server 2022, 23H2 Edition (Server Core installation), Windows Server 2025, Windows Server 2025 (Server Core installation)</t>
         </is>
       </c>
       <c r="G130" s="1" t="inlineStr">
@@ -4995,16 +4995,18 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>CVE-2025-49744</t>
+          <t>CVE-2025-6554</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Windows Graphics Component Elevation of Privilege Vulnerability</t>
-        </is>
-      </c>
-      <c r="C131" t="n">
-        <v>7</v>
+          <t>Chromium: CVE-2025-6554 Type Confusion in V8</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -5018,7 +5020,7 @@
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>Windows 10 Version 1607 for 32-bit Systems, Windows 10 Version 1607 for x64-based Systems, Windows 10 Version 1809 for 32-bit Systems, Windows 10 Version 1809 for x64-based Systems, Windows 10 Version 21H2 for 32-bit Systems, Windows 10 Version 21H2 for ARM64-based Systems, Windows 10 Version 21H2 for x64-based Systems, Windows 10 Version 22H2 for 32-bit Systems, Windows 10 Version 22H2 for ARM64-based Systems, Windows 10 Version 22H2 for x64-based Systems, Windows 10 for 32-bit Systems, Windows 10 for x64-based Systems, Windows 11 Version 22H2 for ARM64-based Systems, Windows 11 Version 22H2 for x64-based Systems, Windows 11 Version 23H2 for ARM64-based Systems, Windows 11 Version 23H2 for x64-based Systems, Windows 11 Version 24H2 for ARM64-based Systems, Windows 11 Version 24H2 for x64-based Systems, Windows Server 2016, Windows Server 2016 (Server Core installation), Windows Server 2019, Windows Server 2019 (Server Core installation), Windows Server 2022, Windows Server 2022 (Server Core installation), Windows Server 2022, 23H2 Edition (Server Core installation), Windows Server 2025, Windows Server 2025 (Server Core installation)</t>
+          <t>Microsoft Edge (Chromium-based)</t>
         </is>
       </c>
       <c r="G131" s="1" t="inlineStr">
@@ -5030,18 +5032,16 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>CVE-2025-6554</t>
+          <t>CVE-2025-47988</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Chromium: CVE-2025-6554 Type Confusion in V8</t>
-        </is>
-      </c>
-      <c r="C132" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
+          <t>Azure Monitor Agent Remote Code Execution Vulnerability</t>
+        </is>
+      </c>
+      <c r="C132" t="n">
+        <v>7.5</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -5055,7 +5055,7 @@
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>Microsoft Edge (Chromium-based)</t>
+          <t>Azure Monitor Agent</t>
         </is>
       </c>
       <c r="G132" s="1" t="inlineStr">
@@ -5067,16 +5067,16 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>CVE-2025-47988</t>
+          <t>CVE-2025-49733</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Azure Monitor Agent Remote Code Execution Vulnerability</t>
+          <t>Win32k Elevation of Privilege Vulnerability</t>
         </is>
       </c>
       <c r="C133" t="n">
-        <v>7.5</v>
+        <v>7.8</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -5090,7 +5090,7 @@
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>Azure Monitor Agent</t>
+          <t>Windows 10 Version 1809 for 32-bit Systems, Windows 10 Version 1809 for x64-based Systems, Windows 10 Version 21H2 for 32-bit Systems, Windows 10 Version 21H2 for ARM64-based Systems, Windows 10 Version 21H2 for x64-based Systems, Windows 10 Version 22H2 for 32-bit Systems, Windows 10 Version 22H2 for ARM64-based Systems, Windows 10 Version 22H2 for x64-based Systems, Windows 11 Version 22H2 for ARM64-based Systems, Windows 11 Version 22H2 for x64-based Systems, Windows 11 Version 23H2 for ARM64-based Systems, Windows 11 Version 23H2 for x64-based Systems, Windows 11 Version 24H2 for ARM64-based Systems, Windows 11 Version 24H2 for x64-based Systems, Windows Server 2019, Windows Server 2019 (Server Core installation), Windows Server 2022, Windows Server 2022 (Server Core installation), Windows Server 2022, 23H2 Edition (Server Core installation), Windows Server 2025, Windows Server 2025 (Server Core installation)</t>
         </is>
       </c>
       <c r="G133" s="1" t="inlineStr">
